--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il11-Il6st.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il11-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.18245562311747</v>
+        <v>1.341734333333333</v>
       </c>
       <c r="H2">
-        <v>1.18245562311747</v>
+        <v>4.025202999999999</v>
       </c>
       <c r="I2">
-        <v>0.4523198461314111</v>
+        <v>0.2468325318068303</v>
       </c>
       <c r="J2">
-        <v>0.4523198461314111</v>
+        <v>0.3286367187168318</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>41.6955923851178</v>
+        <v>54.43165466666667</v>
       </c>
       <c r="N2">
-        <v>41.6955923851178</v>
+        <v>163.294964</v>
       </c>
       <c r="O2">
-        <v>0.1916523227071156</v>
+        <v>0.2228930782800698</v>
       </c>
       <c r="P2">
-        <v>0.1916523227071156</v>
+        <v>0.2327227899462091</v>
       </c>
       <c r="Q2">
-        <v>49.30318767499651</v>
+        <v>73.03281988641021</v>
       </c>
       <c r="R2">
-        <v>49.30318767499651</v>
+        <v>657.2953789776918</v>
       </c>
       <c r="S2">
-        <v>0.08668814911761009</v>
+        <v>0.05501726283408764</v>
       </c>
       <c r="T2">
-        <v>0.08668814911761009</v>
+        <v>0.07648125405854865</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.18245562311747</v>
+        <v>1.341734333333333</v>
       </c>
       <c r="H3">
-        <v>1.18245562311747</v>
+        <v>4.025202999999999</v>
       </c>
       <c r="I3">
-        <v>0.4523198461314111</v>
+        <v>0.2468325318068303</v>
       </c>
       <c r="J3">
-        <v>0.4523198461314111</v>
+        <v>0.3286367187168318</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>117.123907374257</v>
+        <v>126.7095336666667</v>
       </c>
       <c r="N3">
-        <v>117.123907374257</v>
+        <v>380.128601</v>
       </c>
       <c r="O3">
-        <v>0.5383559174667427</v>
+        <v>0.5188649542136915</v>
       </c>
       <c r="P3">
-        <v>0.5383559174667427</v>
+        <v>0.541747194133123</v>
       </c>
       <c r="Q3">
-        <v>138.4938228761799</v>
+        <v>170.0105316812225</v>
       </c>
       <c r="R3">
-        <v>138.4938228761799</v>
+        <v>1530.094785131003</v>
       </c>
       <c r="S3">
-        <v>0.2435090657524917</v>
+        <v>0.1280727503144005</v>
       </c>
       <c r="T3">
-        <v>0.2435090657524917</v>
+        <v>0.17803802025396</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.18245562311747</v>
+        <v>1.341734333333333</v>
       </c>
       <c r="H4">
-        <v>1.18245562311747</v>
+        <v>4.025202999999999</v>
       </c>
       <c r="I4">
-        <v>0.4523198461314111</v>
+        <v>0.2468325318068303</v>
       </c>
       <c r="J4">
-        <v>0.4523198461314111</v>
+        <v>0.3286367187168318</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.1240259039828</v>
+        <v>17.491284</v>
       </c>
       <c r="N4">
-        <v>14.1240259039828</v>
+        <v>52.473852</v>
       </c>
       <c r="O4">
-        <v>0.06492058789983599</v>
+        <v>0.07162534664261168</v>
       </c>
       <c r="P4">
-        <v>0.06492058789983599</v>
+        <v>0.07478406521259567</v>
       </c>
       <c r="Q4">
-        <v>16.70103385122127</v>
+        <v>23.468656276884</v>
       </c>
       <c r="R4">
-        <v>16.70103385122127</v>
+        <v>211.217906491956</v>
       </c>
       <c r="S4">
-        <v>0.02936487032961456</v>
+        <v>0.01767946565333769</v>
       </c>
       <c r="T4">
-        <v>0.02936487032961456</v>
+        <v>0.02457678980377301</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.18245562311747</v>
+        <v>1.341734333333333</v>
       </c>
       <c r="H5">
-        <v>1.18245562311747</v>
+        <v>4.025202999999999</v>
       </c>
       <c r="I5">
-        <v>0.4523198461314111</v>
+        <v>0.2468325318068303</v>
       </c>
       <c r="J5">
-        <v>0.4523198461314111</v>
+        <v>0.3286367187168318</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.5839805176537</v>
+        <v>14.62863866666667</v>
       </c>
       <c r="N5">
-        <v>14.5839805176537</v>
+        <v>43.88591599999999</v>
       </c>
       <c r="O5">
-        <v>0.0670347530911032</v>
+        <v>0.05990305316690945</v>
       </c>
       <c r="P5">
-        <v>0.0670347530911032</v>
+        <v>0.06254481192001105</v>
       </c>
       <c r="Q5">
-        <v>17.24490977053525</v>
+        <v>19.62774674899422</v>
       </c>
       <c r="R5">
-        <v>17.24490977053525</v>
+        <v>176.6497207409479</v>
       </c>
       <c r="S5">
-        <v>0.03032114920362493</v>
+        <v>0.01478602227614742</v>
       </c>
       <c r="T5">
-        <v>0.03032114920362493</v>
+        <v>0.02055452176215382</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.18245562311747</v>
+        <v>1.341734333333333</v>
       </c>
       <c r="H6">
-        <v>1.18245562311747</v>
+        <v>4.025202999999999</v>
       </c>
       <c r="I6">
-        <v>0.4523198461314111</v>
+        <v>0.2468325318068303</v>
       </c>
       <c r="J6">
-        <v>0.4523198461314111</v>
+        <v>0.3286367187168318</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.0309966128071</v>
+        <v>30.9441155</v>
       </c>
       <c r="N6">
-        <v>30.0309966128071</v>
+        <v>61.888231</v>
       </c>
       <c r="O6">
-        <v>0.1380364188352026</v>
+        <v>0.1267135676967176</v>
       </c>
       <c r="P6">
-        <v>0.1380364188352026</v>
+        <v>0.08820113878806125</v>
       </c>
       <c r="Q6">
-        <v>35.51032081263546</v>
+        <v>41.51878218098216</v>
       </c>
       <c r="R6">
-        <v>35.51032081263546</v>
+        <v>249.112693085893</v>
       </c>
       <c r="S6">
-        <v>0.06243661172806984</v>
+        <v>0.03127703072885699</v>
       </c>
       <c r="T6">
-        <v>0.06243661172806984</v>
+        <v>0.02898613283839633</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.43174676758182</v>
+        <v>0.034833</v>
       </c>
       <c r="H7">
-        <v>1.43174676758182</v>
+        <v>0.104499</v>
       </c>
       <c r="I7">
-        <v>0.5476801538685888</v>
+        <v>0.006408062584988127</v>
       </c>
       <c r="J7">
-        <v>0.5476801538685888</v>
+        <v>0.008531795407384477</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.6955923851178</v>
+        <v>54.43165466666667</v>
       </c>
       <c r="N7">
-        <v>41.6955923851178</v>
+        <v>163.294964</v>
       </c>
       <c r="O7">
-        <v>0.1916523227071156</v>
+        <v>0.2228930782800698</v>
       </c>
       <c r="P7">
-        <v>0.1916523227071156</v>
+        <v>0.2327227899462091</v>
       </c>
       <c r="Q7">
-        <v>59.69752961980156</v>
+        <v>1.896017827004</v>
       </c>
       <c r="R7">
-        <v>59.69752961980156</v>
+        <v>17.064160443036</v>
       </c>
       <c r="S7">
-        <v>0.1049641735895055</v>
+        <v>0.001428312795379345</v>
       </c>
       <c r="T7">
-        <v>0.1049641735895055</v>
+        <v>0.001985543230456769</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.43174676758182</v>
+        <v>0.034833</v>
       </c>
       <c r="H8">
-        <v>1.43174676758182</v>
+        <v>0.104499</v>
       </c>
       <c r="I8">
-        <v>0.5476801538685888</v>
+        <v>0.006408062584988127</v>
       </c>
       <c r="J8">
-        <v>0.5476801538685888</v>
+        <v>0.008531795407384477</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.123907374257</v>
+        <v>126.7095336666667</v>
       </c>
       <c r="N8">
-        <v>117.123907374257</v>
+        <v>380.128601</v>
       </c>
       <c r="O8">
-        <v>0.5383559174667427</v>
+        <v>0.5188649542136915</v>
       </c>
       <c r="P8">
-        <v>0.5383559174667427</v>
+        <v>0.541747194133123</v>
       </c>
       <c r="Q8">
-        <v>167.691775789645</v>
+        <v>4.413673186211001</v>
       </c>
       <c r="R8">
-        <v>167.691775789645</v>
+        <v>39.723058675899</v>
       </c>
       <c r="S8">
-        <v>0.294846851714251</v>
+        <v>0.003324919099758334</v>
       </c>
       <c r="T8">
-        <v>0.294846851714251</v>
+        <v>0.004622076222868405</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.43174676758182</v>
+        <v>0.034833</v>
       </c>
       <c r="H9">
-        <v>1.43174676758182</v>
+        <v>0.104499</v>
       </c>
       <c r="I9">
-        <v>0.5476801538685888</v>
+        <v>0.006408062584988127</v>
       </c>
       <c r="J9">
-        <v>0.5476801538685888</v>
+        <v>0.008531795407384477</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.1240259039828</v>
+        <v>17.491284</v>
       </c>
       <c r="N9">
-        <v>14.1240259039828</v>
+        <v>52.473852</v>
       </c>
       <c r="O9">
-        <v>0.06492058789983599</v>
+        <v>0.07162534664261168</v>
       </c>
       <c r="P9">
-        <v>0.06492058789983599</v>
+        <v>0.07478406521259567</v>
       </c>
       <c r="Q9">
-        <v>20.22202843326927</v>
+        <v>0.6092738955720001</v>
       </c>
       <c r="R9">
-        <v>20.22202843326927</v>
+        <v>5.483465060148</v>
       </c>
       <c r="S9">
-        <v>0.03555571757022142</v>
+        <v>0.0004589797039573249</v>
       </c>
       <c r="T9">
-        <v>0.03555571757022142</v>
+        <v>0.000638042344126365</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.43174676758182</v>
+        <v>0.034833</v>
       </c>
       <c r="H10">
-        <v>1.43174676758182</v>
+        <v>0.104499</v>
       </c>
       <c r="I10">
-        <v>0.5476801538685888</v>
+        <v>0.006408062584988127</v>
       </c>
       <c r="J10">
-        <v>0.5476801538685888</v>
+        <v>0.008531795407384477</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.5839805176537</v>
+        <v>14.62863866666667</v>
       </c>
       <c r="N10">
-        <v>14.5839805176537</v>
+        <v>43.88591599999999</v>
       </c>
       <c r="O10">
-        <v>0.0670347530911032</v>
+        <v>0.05990305316690945</v>
       </c>
       <c r="P10">
-        <v>0.0670347530911032</v>
+        <v>0.06254481192001105</v>
       </c>
       <c r="Q10">
-        <v>20.88056696462692</v>
+        <v>0.509559370676</v>
       </c>
       <c r="R10">
-        <v>20.88056696462692</v>
+        <v>4.586034336083999</v>
       </c>
       <c r="S10">
-        <v>0.03671360388747826</v>
+        <v>0.000383862513725427</v>
       </c>
       <c r="T10">
-        <v>0.03671360388747826</v>
+        <v>0.0005336195390948761</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.034833</v>
+      </c>
+      <c r="H11">
+        <v>0.104499</v>
+      </c>
+      <c r="I11">
+        <v>0.006408062584988127</v>
+      </c>
+      <c r="J11">
+        <v>0.008531795407384477</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>30.9441155</v>
+      </c>
+      <c r="N11">
+        <v>61.888231</v>
+      </c>
+      <c r="O11">
+        <v>0.1267135676967176</v>
+      </c>
+      <c r="P11">
+        <v>0.08820113878806125</v>
+      </c>
+      <c r="Q11">
+        <v>1.0778763752115</v>
+      </c>
+      <c r="R11">
+        <v>6.467258251269001</v>
+      </c>
+      <c r="S11">
+        <v>0.000811988472167696</v>
+      </c>
+      <c r="T11">
+        <v>0.0007525140708380619</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.059241</v>
+      </c>
+      <c r="H12">
+        <v>8.118482</v>
+      </c>
+      <c r="I12">
+        <v>0.7467594056081815</v>
+      </c>
+      <c r="J12">
+        <v>0.6628314858757838</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>54.43165466666667</v>
+      </c>
+      <c r="N12">
+        <v>163.294964</v>
+      </c>
+      <c r="O12">
+        <v>0.2228930782800698</v>
+      </c>
+      <c r="P12">
+        <v>0.2327227899462091</v>
+      </c>
+      <c r="Q12">
+        <v>220.9512043207747</v>
+      </c>
+      <c r="R12">
+        <v>1325.707225924648</v>
+      </c>
+      <c r="S12">
+        <v>0.1664475026506028</v>
+      </c>
+      <c r="T12">
+        <v>0.1542559926572037</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.059241</v>
+      </c>
+      <c r="H13">
+        <v>8.118482</v>
+      </c>
+      <c r="I13">
+        <v>0.7467594056081815</v>
+      </c>
+      <c r="J13">
+        <v>0.6628314858757838</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>126.7095336666667</v>
+      </c>
+      <c r="N13">
+        <v>380.128601</v>
+      </c>
+      <c r="O13">
+        <v>0.5188649542136915</v>
+      </c>
+      <c r="P13">
+        <v>0.541747194133123</v>
+      </c>
+      <c r="Q13">
+        <v>514.3445341506138</v>
+      </c>
+      <c r="R13">
+        <v>3086.067204903682</v>
+      </c>
+      <c r="S13">
+        <v>0.3874672847995326</v>
+      </c>
+      <c r="T13">
+        <v>0.3590870976562946</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.43174676758182</v>
-      </c>
-      <c r="H11">
-        <v>1.43174676758182</v>
-      </c>
-      <c r="I11">
-        <v>0.5476801538685888</v>
-      </c>
-      <c r="J11">
-        <v>0.5476801538685888</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>30.0309966128071</v>
-      </c>
-      <c r="N11">
-        <v>30.0309966128071</v>
-      </c>
-      <c r="O11">
-        <v>0.1380364188352026</v>
-      </c>
-      <c r="P11">
-        <v>0.1380364188352026</v>
-      </c>
-      <c r="Q11">
-        <v>42.99678232764715</v>
-      </c>
-      <c r="R11">
-        <v>42.99678232764715</v>
-      </c>
-      <c r="S11">
-        <v>0.07559980710713271</v>
-      </c>
-      <c r="T11">
-        <v>0.07559980710713271</v>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.059241</v>
+      </c>
+      <c r="H14">
+        <v>8.118482</v>
+      </c>
+      <c r="I14">
+        <v>0.7467594056081815</v>
+      </c>
+      <c r="J14">
+        <v>0.6628314858757838</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>17.491284</v>
+      </c>
+      <c r="N14">
+        <v>52.473852</v>
+      </c>
+      <c r="O14">
+        <v>0.07162534664261168</v>
+      </c>
+      <c r="P14">
+        <v>0.07478406521259567</v>
+      </c>
+      <c r="Q14">
+        <v>71.00133715544401</v>
+      </c>
+      <c r="R14">
+        <v>426.008022932664</v>
+      </c>
+      <c r="S14">
+        <v>0.05348690128531666</v>
+      </c>
+      <c r="T14">
+        <v>0.0495692330646963</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.059241</v>
+      </c>
+      <c r="H15">
+        <v>8.118482</v>
+      </c>
+      <c r="I15">
+        <v>0.7467594056081815</v>
+      </c>
+      <c r="J15">
+        <v>0.6628314858757838</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>14.62863866666667</v>
+      </c>
+      <c r="N15">
+        <v>43.88591599999999</v>
+      </c>
+      <c r="O15">
+        <v>0.05990305316690945</v>
+      </c>
+      <c r="P15">
+        <v>0.06254481192001105</v>
+      </c>
+      <c r="Q15">
+        <v>59.38116984991866</v>
+      </c>
+      <c r="R15">
+        <v>356.287019099512</v>
+      </c>
+      <c r="S15">
+        <v>0.0447331683770366</v>
+      </c>
+      <c r="T15">
+        <v>0.04145667061876235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.059241</v>
+      </c>
+      <c r="H16">
+        <v>8.118482</v>
+      </c>
+      <c r="I16">
+        <v>0.7467594056081815</v>
+      </c>
+      <c r="J16">
+        <v>0.6628314858757838</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>30.9441155</v>
+      </c>
+      <c r="N16">
+        <v>61.888231</v>
+      </c>
+      <c r="O16">
+        <v>0.1267135676967176</v>
+      </c>
+      <c r="P16">
+        <v>0.08820113878806125</v>
+      </c>
+      <c r="Q16">
+        <v>125.6096223463355</v>
+      </c>
+      <c r="R16">
+        <v>502.4384893853421</v>
+      </c>
+      <c r="S16">
+        <v>0.09462454849569289</v>
+      </c>
+      <c r="T16">
+        <v>0.05846249187882687</v>
       </c>
     </row>
   </sheetData>
